--- a/level-2/atcoder-phase-2-2/atcoder-phase-2-2.xlsx
+++ b/level-2/atcoder-phase-2-2/atcoder-phase-2-2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CB366A-C342-4B3F-8BF9-F862539136A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56630FE4-FDBA-4917-94D9-0E6CD8AA929C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2343,7 +2343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" s="4" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
         <v>55</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A80" s="16" t="s">
         <v>85</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A81" s="16" t="s">
         <v>86</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A82" s="16" t="s">
         <v>87</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A83" s="16" t="s">
         <v>88</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A84" s="16" t="s">
         <v>89</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A85" s="16" t="s">
         <v>90</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A86" s="16" t="s">
         <v>91</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A87" s="16" t="s">
         <v>92</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A88" s="16" t="s">
         <v>93</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A89" s="16" t="s">
         <v>94</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A90" s="16" t="s">
         <v>95</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A91" s="16" t="s">
         <v>96</v>
       </c>

--- a/level-2/atcoder-phase-2-2/atcoder-phase-2-2.xlsx
+++ b/level-2/atcoder-phase-2-2/atcoder-phase-2-2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56630FE4-FDBA-4917-94D9-0E6CD8AA929C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06F5995-0592-4EAA-820E-DC9F47AA0959}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -779,7 +779,49 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="69">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2343,11 +2385,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="4" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="14" t="s">
         <v>144</v>
       </c>
       <c r="C50" s="8"/>
@@ -2853,7 +2895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A80" s="16" t="s">
         <v>85</v>
       </c>
@@ -2870,7 +2912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A81" s="16" t="s">
         <v>86</v>
       </c>
@@ -2887,7 +2929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A82" s="16" t="s">
         <v>87</v>
       </c>
@@ -2904,7 +2946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A83" s="16" t="s">
         <v>88</v>
       </c>
@@ -2921,7 +2963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A84" s="16" t="s">
         <v>89</v>
       </c>
@@ -2938,7 +2980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A85" s="16" t="s">
         <v>90</v>
       </c>
@@ -2955,7 +2997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A86" s="16" t="s">
         <v>91</v>
       </c>
@@ -2972,7 +3014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A87" s="16" t="s">
         <v>92</v>
       </c>
@@ -2989,7 +3031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A88" s="16" t="s">
         <v>93</v>
       </c>
@@ -3006,7 +3048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A89" s="16" t="s">
         <v>94</v>
       </c>
@@ -3023,7 +3065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A90" s="16" t="s">
         <v>95</v>
       </c>
@@ -3040,7 +3082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A91" s="16" t="s">
         <v>96</v>
       </c>
@@ -3236,321 +3278,299 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B1 A3:A12 B3:B23 A24:B28 B57:B79">
-    <cfRule type="cellIs" dxfId="62" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="241" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:A72">
-    <cfRule type="cellIs" dxfId="61" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="88" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65:A72">
-    <cfRule type="cellIs" dxfId="60" priority="81" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A80:A89">
-    <cfRule type="cellIs" dxfId="59" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="87" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A36">
-    <cfRule type="cellIs" dxfId="58" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="105" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:A1048576">
-    <cfRule type="cellIs" dxfId="57" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="132" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:A23">
-    <cfRule type="cellIs" dxfId="56" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="115" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="cellIs" dxfId="55" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="125" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A12">
-    <cfRule type="cellIs" dxfId="54" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="120" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A12">
-    <cfRule type="cellIs" dxfId="53" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="119" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:A23">
-    <cfRule type="cellIs" dxfId="52" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="118" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:A20">
-    <cfRule type="cellIs" dxfId="51" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="117" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:A28">
-    <cfRule type="cellIs" dxfId="50" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="108" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A44">
-    <cfRule type="cellIs" dxfId="49" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="106" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A44">
-    <cfRule type="cellIs" dxfId="48" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="104" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:A44">
-    <cfRule type="cellIs" dxfId="47" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="103" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A56">
-    <cfRule type="cellIs" dxfId="46" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="102" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A52">
-    <cfRule type="cellIs" dxfId="45" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="101" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:A56">
-    <cfRule type="cellIs" dxfId="44" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="99" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:A72">
-    <cfRule type="cellIs" dxfId="43" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="90" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:A64">
-    <cfRule type="cellIs" dxfId="42" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="89" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:A79">
-    <cfRule type="cellIs" dxfId="41" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="86" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:A79">
-    <cfRule type="cellIs" dxfId="40" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="85" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:A104">
-    <cfRule type="cellIs" dxfId="39" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="80" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97:A104">
-    <cfRule type="cellIs" dxfId="38" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="79" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:A104">
-    <cfRule type="cellIs" dxfId="37" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="82" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:A96">
-    <cfRule type="cellIs" dxfId="36" priority="75" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A80:A89">
-    <cfRule type="cellIs" dxfId="35" priority="70" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50:B56 B5:B13 B15:B23 B80:B89">
-    <cfRule type="cellIs" dxfId="34" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="81" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51:B56 B5:B13 B15:B23">
+    <cfRule type="cellIs" dxfId="40" priority="74" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
+    <cfRule type="cellIs" dxfId="39" priority="52" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58">
+    <cfRule type="cellIs" dxfId="38" priority="51" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59">
+    <cfRule type="cellIs" dxfId="37" priority="50" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60">
+    <cfRule type="cellIs" dxfId="36" priority="49" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B61">
+    <cfRule type="cellIs" dxfId="35" priority="48" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62">
+    <cfRule type="cellIs" dxfId="34" priority="47" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63">
     <cfRule type="cellIs" dxfId="33" priority="46" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B58">
+  <conditionalFormatting sqref="B64">
     <cfRule type="cellIs" dxfId="32" priority="45" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B59">
+  <conditionalFormatting sqref="B65">
     <cfRule type="cellIs" dxfId="31" priority="44" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B60">
+  <conditionalFormatting sqref="B66">
     <cfRule type="cellIs" dxfId="30" priority="43" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B61">
+  <conditionalFormatting sqref="B67">
     <cfRule type="cellIs" dxfId="29" priority="42" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B62">
+  <conditionalFormatting sqref="B68">
     <cfRule type="cellIs" dxfId="28" priority="41" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B63">
+  <conditionalFormatting sqref="B69">
     <cfRule type="cellIs" dxfId="27" priority="40" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B64">
+  <conditionalFormatting sqref="B70">
     <cfRule type="cellIs" dxfId="26" priority="39" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B65">
+  <conditionalFormatting sqref="B71">
     <cfRule type="cellIs" dxfId="25" priority="38" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B66">
+  <conditionalFormatting sqref="B72">
     <cfRule type="cellIs" dxfId="24" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B67">
+  <conditionalFormatting sqref="B73">
     <cfRule type="cellIs" dxfId="23" priority="36" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B68">
+  <conditionalFormatting sqref="B74">
     <cfRule type="cellIs" dxfId="22" priority="35" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B69">
+  <conditionalFormatting sqref="B75">
     <cfRule type="cellIs" dxfId="21" priority="34" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B70">
+  <conditionalFormatting sqref="B76">
     <cfRule type="cellIs" dxfId="20" priority="33" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B71">
+  <conditionalFormatting sqref="B77">
     <cfRule type="cellIs" dxfId="19" priority="32" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B72">
+  <conditionalFormatting sqref="B78">
     <cfRule type="cellIs" dxfId="18" priority="31" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B73">
+  <conditionalFormatting sqref="B79">
     <cfRule type="cellIs" dxfId="17" priority="30" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B74">
-    <cfRule type="cellIs" dxfId="16" priority="29" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B75">
-    <cfRule type="cellIs" dxfId="15" priority="28" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B76">
-    <cfRule type="cellIs" dxfId="14" priority="27" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B77">
-    <cfRule type="cellIs" dxfId="13" priority="26" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B78">
-    <cfRule type="cellIs" dxfId="12" priority="25" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B79">
-    <cfRule type="cellIs" dxfId="11" priority="24" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B80:B89">
-    <cfRule type="cellIs" dxfId="10" priority="19" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A91">
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A91">
-    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A92">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92">
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B91:B92">
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B92">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B92">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A80:A91">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B91:B92">
+  <conditionalFormatting sqref="A80:A91">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A90">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A90">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B90">
+  <conditionalFormatting sqref="B80:B91">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B90">
+  <conditionalFormatting sqref="B80:B91">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="B50" r:id="rId1" xr:uid="{870DACC3-E869-4122-B1D3-516AE1147BCB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>